--- a/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
+++ b/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Proyecto_Grupo_5\QuantumAnts-Software\Desarrollo\SGDS\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D4C19-57A2-43A9-ABDA-130F25BA2191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0EF2EA-A917-4B52-801C-D5363E0CC5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>Archivo de implementación y Verificación de Requisito 09</t>
+  </si>
+  <si>
+    <t>Leon(DU)</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1533,9 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1916,8 +1916,8 @@
   </sheetPr>
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1934,23 +1934,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -2008,7 +2008,7 @@
         <v>45022</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="110"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -2045,7 +2045,7 @@
       <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="102" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -2071,7 +2071,7 @@
       <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2097,7 +2097,7 @@
       <c r="C11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="103" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -2125,7 +2125,7 @@
       <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="103" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -2140,7 +2140,7 @@
       <c r="H12" s="20">
         <v>1</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="2"/>
@@ -2154,7 +2154,7 @@
       <c r="C13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="103" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="29" t="s">
@@ -2169,7 +2169,7 @@
       <c r="H13" s="20">
         <v>1</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -2180,7 +2180,7 @@
       <c r="C14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="103" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -2195,7 +2195,7 @@
       <c r="H14" s="20">
         <v>1</v>
       </c>
-      <c r="I14" s="112"/>
+      <c r="I14" s="111"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -2206,7 +2206,7 @@
       <c r="C15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="103" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="32" t="s">
@@ -2221,7 +2221,7 @@
       <c r="H15" s="20">
         <v>1</v>
       </c>
-      <c r="I15" s="112"/>
+      <c r="I15" s="111"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="C16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="103" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -2248,7 +2248,7 @@
       <c r="H16" s="20">
         <v>1</v>
       </c>
-      <c r="I16" s="112"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="C17" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="103" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="29" t="s">
@@ -2275,7 +2275,7 @@
       <c r="H17" s="20">
         <v>1</v>
       </c>
-      <c r="I17" s="112"/>
+      <c r="I17" s="111"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="C18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="103" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="29" t="s">
@@ -2302,7 +2302,7 @@
       <c r="H18" s="20">
         <v>1</v>
       </c>
-      <c r="I18" s="112"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
@@ -2314,11 +2314,11 @@
       <c r="C19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="103" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="F19" s="24">
         <v>45033</v>
@@ -2329,7 +2329,7 @@
       <c r="H19" s="20">
         <v>1</v>
       </c>
-      <c r="I19" s="112"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
@@ -2341,11 +2341,11 @@
       <c r="C20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="103" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="F20" s="24">
         <v>45033</v>
@@ -2356,7 +2356,7 @@
       <c r="H20" s="20">
         <v>1</v>
       </c>
-      <c r="I20" s="112"/>
+      <c r="I20" s="111"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
@@ -2368,7 +2368,7 @@
       <c r="C21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="103" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="29" t="s">
@@ -2383,7 +2383,7 @@
       <c r="H21" s="20">
         <v>1</v>
       </c>
-      <c r="I21" s="112"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
@@ -2395,7 +2395,7 @@
       <c r="C22" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="32" t="s">
@@ -2410,7 +2410,7 @@
       <c r="H22" s="20">
         <v>1</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
@@ -2422,7 +2422,7 @@
       <c r="C23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="103" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -2437,7 +2437,7 @@
       <c r="H23" s="20">
         <v>1</v>
       </c>
-      <c r="I23" s="112"/>
+      <c r="I23" s="111"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="C24" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="103" t="s">
         <v>150</v>
       </c>
       <c r="E24" s="29" t="s">
@@ -2470,13 +2470,13 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="103" t="s">
         <v>151</v>
       </c>
       <c r="E25" s="29" t="s">
@@ -2503,7 +2503,7 @@
       <c r="C26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="103" t="s">
         <v>152</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -2518,7 +2518,7 @@
       <c r="H26" s="20">
         <v>1</v>
       </c>
-      <c r="I26" s="111" t="s">
+      <c r="I26" s="110" t="s">
         <v>73</v>
       </c>
       <c r="J26" s="2"/>
@@ -2532,7 +2532,7 @@
       <c r="C27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="103" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="29" t="s">
@@ -2547,7 +2547,7 @@
       <c r="H27" s="20">
         <v>1</v>
       </c>
-      <c r="I27" s="112"/>
+      <c r="I27" s="111"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
@@ -2556,16 +2556,16 @@
       <c r="B28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="103" t="s">
         <v>153</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>45053</v>
       </c>
       <c r="G28" s="31">
@@ -2574,7 +2574,7 @@
       <c r="H28" s="20">
         <v>1</v>
       </c>
-      <c r="I28" s="111" t="s">
+      <c r="I28" s="110" t="s">
         <v>80</v>
       </c>
       <c r="J28" s="2"/>
@@ -2588,238 +2588,238 @@
       <c r="C29" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="103" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>45057</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>45060</v>
       </c>
-      <c r="H29" s="33">
-        <v>0</v>
-      </c>
-      <c r="I29" s="112"/>
+      <c r="H29" s="20">
+        <v>1</v>
+      </c>
+      <c r="I29" s="111"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42">
+      <c r="C30" s="39"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41">
         <v>45052</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <v>45060</v>
       </c>
-      <c r="H30" s="43">
-        <f>SUM(H10:H29)/21</f>
-        <v>0.90476190476190477</v>
-      </c>
-      <c r="I30" s="112"/>
+      <c r="H30" s="42">
+        <f>SUM(H10:H29)/20</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="111"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="105" t="s">
         <v>154</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <v>45061</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <v>45072</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="45">
         <v>0</v>
       </c>
       <c r="I31" s="21"/>
-      <c r="J31" s="47"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="105" t="s">
         <v>155</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>45061</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <v>45072</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="45">
         <v>0</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="47"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="105" t="s">
         <v>156</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>45061</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="36">
         <v>45072</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="45">
         <v>0</v>
       </c>
       <c r="I33" s="21"/>
-      <c r="J33" s="47"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="9"/>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="106" t="s">
         <v>157</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>45061</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="36">
         <v>45072</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="45">
         <v>0</v>
       </c>
       <c r="I34" s="21"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="46"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D35" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>45061</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>45072</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="45">
         <v>0</v>
       </c>
       <c r="I35" s="21"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="46"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="36">
         <v>45072</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="36">
         <v>45074</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="45">
         <v>0</v>
       </c>
       <c r="I36" s="21"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <v>45075</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="36">
         <v>45077</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="53">
         <v>0</v>
       </c>
-      <c r="I37" s="111" t="s">
+      <c r="I37" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="47"/>
+      <c r="J37" s="46"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -2827,291 +2827,291 @@
       <c r="B38" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="103" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="36">
         <v>45075</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <v>45077</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="53">
         <v>0</v>
       </c>
-      <c r="I38" s="112"/>
-      <c r="J38" s="47"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="46"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58">
+      <c r="C39" s="55"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57">
         <v>45061</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="41">
         <v>45077</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="58">
         <f>SUM(H31:H38)/9</f>
         <v>0</v>
       </c>
-      <c r="I39" s="112"/>
+      <c r="I39" s="111"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="107" t="s">
         <v>160</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <v>45078</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="36">
         <v>45087</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="53">
         <v>0</v>
       </c>
       <c r="I40" s="21"/>
-      <c r="J40" s="47"/>
+      <c r="J40" s="46"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D41" s="107" t="s">
         <v>161</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="37">
+        <v>185</v>
+      </c>
+      <c r="F41" s="36">
         <v>45078</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="36">
         <v>45087</v>
       </c>
-      <c r="H41" s="54">
+      <c r="H41" s="53">
         <v>0</v>
       </c>
       <c r="I41" s="21"/>
-      <c r="J41" s="47"/>
+      <c r="J41" s="46"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="107" t="s">
         <v>162</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="37">
+        <v>185</v>
+      </c>
+      <c r="F42" s="36">
         <v>45078</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="36">
         <v>45087</v>
       </c>
-      <c r="H42" s="54">
+      <c r="H42" s="53">
         <v>0</v>
       </c>
       <c r="I42" s="21"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="46"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D43" s="107" t="s">
         <v>163</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <v>45078</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="36">
         <v>45087</v>
       </c>
-      <c r="H43" s="54">
+      <c r="H43" s="53">
         <v>0</v>
       </c>
       <c r="I43" s="21"/>
-      <c r="J43" s="47"/>
+      <c r="J43" s="46"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="9"/>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="107" t="s">
         <v>164</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <v>45078</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="36">
         <v>45087</v>
       </c>
-      <c r="H44" s="54">
+      <c r="H44" s="53">
         <v>0</v>
       </c>
       <c r="I44" s="21"/>
-      <c r="J44" s="47"/>
+      <c r="J44" s="46"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="9"/>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="108" t="s">
+      <c r="D45" s="107" t="s">
         <v>165</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <v>45078</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="36">
         <v>45087</v>
       </c>
-      <c r="H45" s="54">
+      <c r="H45" s="53">
         <v>0</v>
       </c>
       <c r="I45" s="21"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="9"/>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="103" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <v>45081</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="36">
         <v>45087</v>
       </c>
-      <c r="H46" s="54">
+      <c r="H46" s="53">
         <v>0</v>
       </c>
       <c r="I46" s="21"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="46"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <v>45082</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="36">
         <v>45087</v>
       </c>
-      <c r="H47" s="54">
+      <c r="H47" s="53">
         <v>0</v>
       </c>
       <c r="I47" s="21"/>
-      <c r="J47" s="47"/>
+      <c r="J47" s="46"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <v>45082</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="36">
         <v>45087</v>
       </c>
-      <c r="H48" s="54">
+      <c r="H48" s="53">
         <v>0</v>
       </c>
       <c r="I48" s="21"/>
-      <c r="J48" s="47"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -3119,55 +3119,55 @@
       <c r="B49" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <v>45088</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="36">
         <v>45091</v>
       </c>
-      <c r="H49" s="54">
+      <c r="H49" s="53">
         <v>0</v>
       </c>
-      <c r="I49" s="111" t="s">
+      <c r="I49" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="J49" s="47"/>
+      <c r="J49" s="46"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="9"/>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="108" t="s">
+      <c r="D50" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <v>45088</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="36">
         <v>45091</v>
       </c>
-      <c r="H50" s="54">
+      <c r="H50" s="53">
         <v>0</v>
       </c>
-      <c r="I50" s="112"/>
-      <c r="J50" s="47"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="46"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -3175,92 +3175,92 @@
       <c r="B51" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="36">
         <v>45088</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="36">
         <v>45091</v>
       </c>
-      <c r="H51" s="54">
+      <c r="H51" s="53">
         <v>0</v>
       </c>
-      <c r="I51" s="111" t="s">
+      <c r="I51" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="J51" s="47"/>
+      <c r="J51" s="46"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="36">
         <v>45092</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="36">
         <v>45095</v>
       </c>
-      <c r="H52" s="54">
+      <c r="H52" s="53">
         <v>0</v>
       </c>
-      <c r="I52" s="112"/>
-      <c r="J52" s="47"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="46"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="69">
+      <c r="C53" s="66"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="68">
         <f>F40</f>
         <v>45078</v>
       </c>
-      <c r="G53" s="69">
+      <c r="G53" s="68">
         <f>G52</f>
         <v>45095</v>
       </c>
-      <c r="H53" s="70">
+      <c r="H53" s="69">
         <f>SUM(H40:H52)/13</f>
         <v>0</v>
       </c>
-      <c r="I53" s="112"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B55" s="72"/>
+      <c r="B55" s="71"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -5046,78 +5046,78 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="117"/>
+      <c r="C3" s="116"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="76" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="76" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6137,168 +6137,168 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="85" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="88" t="b">
+      <c r="G4" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="88">
         <v>1</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="86" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G5" s="88" t="b">
+      <c r="G5" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="88">
         <f t="shared" ref="H5:H13" si="0">H4+1</f>
         <v>2</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G6" s="88" t="b">
+      <c r="G6" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="91">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="92" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G7" s="88" t="b">
+      <c r="G7" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="92" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G8" s="88" t="b">
+      <c r="G8" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="93">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="94" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G9" s="88" t="b">
+      <c r="G9" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="93">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="94" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G10" s="88" t="b">
+      <c r="G10" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="95">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="96" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G11" s="88" t="b">
+      <c r="G11" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="88">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="89" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G12" s="88" t="b">
+      <c r="G12" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="97">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="98" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G13" s="88" t="b">
+      <c r="G13" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="97">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="99" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G14" s="88" t="b">
+      <c r="G14" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="100">
         <v>11</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="87" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" customHeight="1">
-      <c r="H15" s="102"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>

--- a/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
+++ b/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Proyecto_Grupo_5\QuantumAnts-Software\Desarrollo\SGDS\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0EF2EA-A917-4B52-801C-D5363E0CC5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6701A2CD-76B9-4E4D-A1F4-87408D19F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:K998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
